--- a/汽柴煤油2.0/eta/PX_SC_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/PX_SC_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2857.4</v>
+        <v>2806.3</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2687.2</v>
+        <v>2695.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2762.2</v>
+        <v>2768.2</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>2685.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2685.6</v>
+        <v>2688.8</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>2755.1</v>
       </c>
       <c r="C5" t="n">
-        <v>2616.8</v>
+        <v>2622.6</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>2613.6</v>
       </c>
       <c r="C6" t="n">
-        <v>2570.9</v>
+        <v>2578.9</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>2189.2</v>
       </c>
       <c r="C9" t="n">
-        <v>2189.1</v>
+        <v>2189.2</v>
       </c>
     </row>
     <row r="10">
@@ -588,7 +588,7 @@
         <v>2315</v>
       </c>
       <c r="C12" t="n">
-        <v>2314.9</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         <v>2679.1</v>
       </c>
       <c r="C15" t="n">
-        <v>2679.1</v>
+        <v>2679.2</v>
       </c>
     </row>
     <row r="16">
@@ -666,7 +666,7 @@
         <v>3432.8</v>
       </c>
       <c r="C18" t="n">
-        <v>3432.7</v>
+        <v>3432.8</v>
       </c>
     </row>
     <row r="19">
